--- a/config_debug/game_activity_config_new.xlsx
+++ b/config_debug/game_activity_config_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1830,14 +1830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F114" sqref="F114"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1940,7 +1939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1992,7 +1991,7 @@
       </c>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="164.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2360,7 +2359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>120</v>
       </c>
       <c r="F37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
@@ -3880,7 +3879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>153</v>
       </c>
       <c r="F48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>154</v>
@@ -4474,7 +4473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -4528,7 +4527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -4748,7 +4747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -4819,7 +4818,7 @@
         <v>176</v>
       </c>
       <c r="F55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="8"/>
@@ -4858,7 +4857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -5340,7 +5339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -5680,7 +5679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -5923,7 +5922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -6220,7 +6219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -6450,7 +6449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7332,7 +7331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7509,7 +7508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7687,7 +7686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7919,7 +7918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -8035,7 +8034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:24" s="3" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:24" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -8340,7 +8339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -8398,7 +8397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -8514,7 +8513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:24" s="3" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:24" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -8572,7 +8571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -8692,7 +8691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:24" s="16" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:24" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A122" s="16">
         <v>121</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:24" s="16" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:24" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A123" s="16">
         <v>122</v>
       </c>
@@ -9224,13 +9223,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X130">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:X130"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9238,16 +9231,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9258,14 +9249,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9277,13 +9270,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -9295,13 +9288,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_debug/game_activity_config_new.xlsx
+++ b/config_debug/game_activity_config_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>notice</t>
-  </si>
-  <si>
-    <t>亲爱的玩家朋友们：\n游戏版本升级将于2019年1月16日（周三）上午9点开启第2阶段不删档内测，安卓和IOS版本手机皆可参与游戏，新版本福利high到爆，登录游戏可领。\n内测期间如遇到任务问题或有更好的建议请加客服QQ：4008882620进行反馈。\n\n                                                                    官方运营团队\n                                                                                       2019年1月16日</t>
   </si>
   <si>
     <t>normal</t>
@@ -1303,6 +1300,9 @@
   <si>
     <t>activity</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的玩家朋友们：\n欢乐天天捕鱼将于2020年6月9日（周二）上午9点开启删档不付费测试，安卓手机可参与游戏，测试期间每天可领1000万游戏币，参与游戏排行榜更可领取丰厚奖励。\n测试期间如遇到任务问题或有更好的建议请加客服QQ：4008882620进行反馈。\n\n                     官方运营团队\n                                               2019年6月3日</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1444,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1552,6 +1552,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1836,7 +1839,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2054,13 +2057,13 @@
         <v>30</v>
       </c>
       <c r="D4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
@@ -2077,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="26" t="s">
-        <v>33</v>
+      <c r="Q4" s="36" t="s">
+        <v>379</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
@@ -2092,7 +2095,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2103,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -2133,7 +2136,7 @@
         <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -2143,10 +2146,10 @@
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2157,7 +2160,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10">
         <v>6</v>
@@ -2181,13 +2184,13 @@
         <v>1</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -2197,10 +2200,10 @@
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
@@ -2211,7 +2214,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="10">
         <v>4</v>
@@ -2241,7 +2244,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
@@ -2250,7 +2253,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2261,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10">
         <v>4</v>
@@ -2299,10 +2302,10 @@
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2313,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10">
         <v>2</v>
@@ -2343,7 +2346,7 @@
         <v>24</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -2353,10 +2356,10 @@
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2367,7 +2370,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2397,7 +2400,7 @@
         <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -2407,10 +2410,10 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2421,16 +2424,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="7">
-        <v>99</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="F11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
@@ -2447,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
@@ -2462,7 +2465,7 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2473,10 +2476,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="7">
@@ -2497,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
@@ -2512,7 +2515,7 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2523,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -2553,7 +2556,7 @@
         <v>24</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -2563,10 +2566,10 @@
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2577,7 +2580,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="10">
         <v>5</v>
@@ -2609,7 +2612,7 @@
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -2621,10 +2624,10 @@
         <v>13</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2635,7 +2638,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="10">
         <v>6</v>
@@ -2665,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -2675,10 +2678,10 @@
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2689,7 +2692,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="10">
         <v>7</v>
@@ -2719,7 +2722,7 @@
         <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -2729,10 +2732,10 @@
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2743,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="10">
         <v>-11</v>
@@ -2773,7 +2776,7 @@
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -2785,7 +2788,7 @@
         <v>21</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>29</v>
@@ -2799,7 +2802,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="10">
         <v>-12</v>
@@ -2829,7 +2832,7 @@
         <v>24</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -2839,10 +2842,10 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2853,7 +2856,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="10">
         <v>-13</v>
@@ -2883,7 +2886,7 @@
         <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -2893,7 +2896,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X19" s="7" t="s">
         <v>29</v>
@@ -2907,7 +2910,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="10">
         <v>-14</v>
@@ -2937,7 +2940,7 @@
         <v>24</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2949,7 +2952,7 @@
         <v>28</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X20" s="7" t="s">
         <v>29</v>
@@ -2963,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="10">
         <v>-15</v>
@@ -2993,7 +2996,7 @@
         <v>24</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -3003,10 +3006,10 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3017,7 +3020,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="10">
         <v>-16</v>
@@ -3047,7 +3050,7 @@
         <v>24</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -3059,7 +3062,7 @@
         <v>29</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X22" s="7" t="s">
         <v>29</v>
@@ -3073,7 +3076,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="10">
         <v>-17</v>
@@ -3103,7 +3106,7 @@
         <v>24</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -3113,10 +3116,10 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3127,7 +3130,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="10">
         <v>-18</v>
@@ -3157,7 +3160,7 @@
         <v>24</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -3169,7 +3172,7 @@
         <v>35</v>
       </c>
       <c r="W24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X24" s="7" t="s">
         <v>29</v>
@@ -3183,7 +3186,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="10">
         <v>-19</v>
@@ -3213,7 +3216,7 @@
         <v>24</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -3223,10 +3226,10 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3237,7 +3240,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="10">
         <v>8</v>
@@ -3267,7 +3270,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -3278,7 +3281,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3289,7 +3292,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="10">
         <v>-21</v>
@@ -3319,7 +3322,7 @@
         <v>24</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -3330,7 +3333,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3341,7 +3344,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="10">
         <v>-22</v>
@@ -3371,7 +3374,7 @@
         <v>24</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -3381,10 +3384,10 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3395,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="10">
         <v>-23</v>
@@ -3425,7 +3428,7 @@
         <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -3435,7 +3438,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X29" s="7" t="s">
         <v>29</v>
@@ -3449,13 +3452,13 @@
         <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="10">
         <v>4</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
@@ -3481,7 +3484,7 @@
         <v>24</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -3491,10 +3494,10 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3505,7 +3508,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="10">
         <v>-24</v>
@@ -3535,7 +3538,7 @@
         <v>24</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -3545,10 +3548,10 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3559,7 +3562,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="10">
         <v>-26</v>
@@ -3589,7 +3592,7 @@
         <v>24</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -3599,7 +3602,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X32" s="7" t="s">
         <v>29</v>
@@ -3613,7 +3616,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="10">
         <v>-24</v>
@@ -3643,7 +3646,7 @@
         <v>24</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
@@ -3655,10 +3658,10 @@
         <v>38</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X33" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3669,7 +3672,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="10">
         <v>-23</v>
@@ -3699,7 +3702,7 @@
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -3709,10 +3712,10 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3723,7 +3726,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="10">
         <v>-26</v>
@@ -3753,7 +3756,7 @@
         <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -3763,10 +3766,10 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3777,7 +3780,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="10">
         <v>-27</v>
@@ -3807,7 +3810,7 @@
         <v>24</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -3817,10 +3820,10 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X36" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3831,13 +3834,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="10">
         <v>3</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
@@ -3863,7 +3866,7 @@
         <v>24</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
@@ -3873,10 +3876,10 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3887,7 +3890,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="10">
         <v>-31</v>
@@ -3917,7 +3920,7 @@
         <v>24</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -3927,7 +3930,7 @@
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X38" s="7" t="s">
         <v>29</v>
@@ -3941,7 +3944,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2">
         <v>-30</v>
@@ -3971,7 +3974,7 @@
         <v>24</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -3981,7 +3984,7 @@
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X39" s="7" t="s">
         <v>29</v>
@@ -3995,7 +3998,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="10">
         <v>7</v>
@@ -4025,7 +4028,7 @@
         <v>24</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -4035,10 +4038,10 @@
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4049,7 +4052,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="10">
         <v>1</v>
@@ -4079,7 +4082,7 @@
         <v>24</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -4089,10 +4092,10 @@
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X41" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4103,7 +4106,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
@@ -4133,7 +4136,7 @@
         <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -4143,10 +4146,10 @@
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4157,7 +4160,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="10">
         <v>-1</v>
@@ -4187,7 +4190,7 @@
         <v>24</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
@@ -4197,7 +4200,7 @@
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X43" s="7" t="s">
         <v>29</v>
@@ -4211,7 +4214,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="10">
         <v>-2</v>
@@ -4241,7 +4244,7 @@
         <v>24</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -4263,7 +4266,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="10">
         <v>-50</v>
@@ -4290,10 +4293,10 @@
         <v>23</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
@@ -4304,7 +4307,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4315,7 +4318,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="10">
         <v>2</v>
@@ -4345,7 +4348,7 @@
         <v>24</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X46" s="7" t="s">
         <v>29</v>
@@ -4369,7 +4372,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="10">
         <v>1</v>
@@ -4399,7 +4402,7 @@
         <v>24</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
@@ -4409,7 +4412,7 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X47" s="7" t="s">
         <v>29</v>
@@ -4423,19 +4426,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="10">
         <v>8</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -4457,7 +4460,7 @@
         <v>24</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -4467,10 +4470,10 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4481,7 +4484,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="10">
         <v>-1</v>
@@ -4511,7 +4514,7 @@
         <v>24</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -4521,7 +4524,7 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X49" s="7" t="s">
         <v>29</v>
@@ -4535,7 +4538,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
@@ -4565,7 +4568,7 @@
         <v>24</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -4575,7 +4578,7 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X50" s="7" t="s">
         <v>29</v>
@@ -4589,19 +4592,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -4620,10 +4623,10 @@
         <v>23</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
@@ -4633,10 +4636,10 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X51" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4647,7 +4650,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="10">
         <v>-31</v>
@@ -4677,7 +4680,7 @@
         <v>24</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -4687,7 +4690,7 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X52" s="7" t="s">
         <v>29</v>
@@ -4701,7 +4704,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
@@ -4731,7 +4734,7 @@
         <v>24</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
@@ -4741,7 +4744,7 @@
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X53" s="7" t="s">
         <v>29</v>
@@ -4755,7 +4758,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D54" s="10">
         <v>4</v>
@@ -4785,7 +4788,7 @@
         <v>24</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
@@ -4795,10 +4798,10 @@
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X54" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -4809,13 +4812,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="10">
         <v>9</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" s="7">
         <v>0</v>
@@ -4841,7 +4844,7 @@
         <v>24</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
@@ -4851,10 +4854,10 @@
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X55" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4865,7 +4868,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
@@ -4895,7 +4898,7 @@
         <v>24</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
@@ -4905,7 +4908,7 @@
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X56" s="7" t="s">
         <v>29</v>
@@ -4919,7 +4922,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" s="10">
         <v>-51</v>
@@ -4949,7 +4952,7 @@
         <v>24</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -4959,7 +4962,7 @@
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X57" s="7" t="s">
         <v>29</v>
@@ -4973,7 +4976,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="10">
         <v>4</v>
@@ -5003,7 +5006,7 @@
         <v>24</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
@@ -5013,10 +5016,10 @@
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X58" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5027,7 +5030,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="10">
         <v>4</v>
@@ -5057,7 +5060,7 @@
         <v>24</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
@@ -5067,10 +5070,10 @@
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X59" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5081,7 +5084,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
@@ -5111,7 +5114,7 @@
         <v>24</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
@@ -5121,7 +5124,7 @@
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X60" s="7" t="s">
         <v>29</v>
@@ -5135,7 +5138,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="10">
         <v>7</v>
@@ -5165,7 +5168,7 @@
         <v>24</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
@@ -5175,10 +5178,10 @@
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X61" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5189,7 +5192,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D62" s="10">
         <v>8</v>
@@ -5219,7 +5222,7 @@
         <v>24</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
@@ -5229,10 +5232,10 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X62" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5243,7 +5246,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="10">
         <v>1</v>
@@ -5270,10 +5273,10 @@
         <v>23</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
@@ -5295,7 +5298,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="10">
         <v>2</v>
@@ -5322,10 +5325,10 @@
         <v>23</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -5347,7 +5350,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="10">
         <v>1</v>
@@ -5377,7 +5380,7 @@
         <v>24</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
@@ -5387,10 +5390,10 @@
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X65" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5401,7 +5404,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="10">
         <v>7</v>
@@ -5431,7 +5434,7 @@
         <v>24</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
@@ -5441,10 +5444,10 @@
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X66" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5455,7 +5458,7 @@
         <v>10000</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D67" s="10">
         <v>7</v>
@@ -5465,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -5487,7 +5490,7 @@
         <v>24</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
@@ -5497,10 +5500,10 @@
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X67" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5511,7 +5514,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D68" s="10">
         <v>6</v>
@@ -5541,7 +5544,7 @@
         <v>24</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
@@ -5551,10 +5554,10 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X68" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5565,7 +5568,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="10">
         <v>5</v>
@@ -5605,7 +5608,7 @@
         <v>24</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
@@ -5615,7 +5618,7 @@
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X69" s="7" t="s">
         <v>29</v>
@@ -5629,7 +5632,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="2">
         <v>2</v>
@@ -5667,13 +5670,13 @@
         <v>24</v>
       </c>
       <c r="Q70" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U70" s="2">
+        <v>1</v>
+      </c>
+      <c r="W70" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="U70" s="2">
-        <v>1</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="X70" s="7" t="s">
         <v>29</v>
@@ -5687,7 +5690,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D71" s="10">
         <v>0</v>
@@ -5727,7 +5730,7 @@
         <v>24</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
@@ -5736,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X71" s="7" t="s">
         <v>29</v>
@@ -5750,7 +5753,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -5785,19 +5788,19 @@
         <v>23</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q72" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="R72" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="R72" s="2" t="s">
+      <c r="S72" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S72" s="2" t="s">
+      <c r="T72" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="U72" s="2">
         <v>1</v>
@@ -5814,7 +5817,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -5852,13 +5855,13 @@
         <v>24</v>
       </c>
       <c r="Q73" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="U73" s="2">
+        <v>1</v>
+      </c>
+      <c r="W73" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="U73" s="2">
-        <v>1</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="X73" s="2" t="s">
         <v>29</v>
@@ -5872,7 +5875,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -5910,13 +5913,13 @@
         <v>24</v>
       </c>
       <c r="Q74" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="U74" s="2">
+        <v>1</v>
+      </c>
+      <c r="W74" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="U74" s="2">
-        <v>1</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="X74" s="2" t="s">
         <v>29</v>
@@ -5930,7 +5933,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D75" s="2">
         <v>0</v>
@@ -5968,13 +5971,13 @@
         <v>24</v>
       </c>
       <c r="Q75" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="U75" s="2">
+        <v>1</v>
+      </c>
+      <c r="W75" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="U75" s="2">
-        <v>1</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="X75" s="2" t="s">
         <v>29</v>
@@ -5988,7 +5991,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
@@ -6026,7 +6029,7 @@
         <v>24</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
@@ -6036,7 +6039,7 @@
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X76" s="2" t="s">
         <v>29</v>
@@ -6050,7 +6053,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D77" s="2">
         <v>3</v>
@@ -6088,13 +6091,13 @@
         <v>24</v>
       </c>
       <c r="Q77" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="U77" s="2">
+        <v>1</v>
+      </c>
+      <c r="W77" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="U77" s="2">
-        <v>1</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="X77" s="2" t="s">
         <v>29</v>
@@ -6108,7 +6111,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D78" s="2">
         <v>3</v>
@@ -6146,13 +6149,13 @@
         <v>24</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U78" s="2">
         <v>1</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X78" s="2" t="s">
         <v>29</v>
@@ -6166,13 +6169,13 @@
         <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D79" s="2">
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -6204,16 +6207,16 @@
         <v>23</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q79" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="U79" s="2">
+        <v>1</v>
+      </c>
+      <c r="W79" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="U79" s="2">
-        <v>1</v>
-      </c>
-      <c r="W79" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>29</v>
@@ -6227,7 +6230,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D80" s="2">
         <v>3</v>
@@ -6265,13 +6268,13 @@
         <v>24</v>
       </c>
       <c r="Q80" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="U80" s="2">
+        <v>1</v>
+      </c>
+      <c r="W80" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="U80" s="2">
-        <v>1</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>29</v>
@@ -6285,7 +6288,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -6323,7 +6326,7 @@
         <v>24</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U81" s="2">
         <v>1</v>
@@ -6340,13 +6343,13 @@
         <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
@@ -6378,16 +6381,16 @@
         <v>23</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q82" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="U82" s="2">
+        <v>1</v>
+      </c>
+      <c r="W82" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="U82" s="2">
-        <v>1</v>
-      </c>
-      <c r="W82" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="X82" s="2" t="s">
         <v>29</v>
@@ -6401,7 +6404,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -6437,13 +6440,13 @@
         <v>24</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U83" s="2">
         <v>1</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X83" s="2" t="s">
         <v>29</v>
@@ -6457,7 +6460,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="2">
         <v>3</v>
@@ -6495,13 +6498,13 @@
         <v>24</v>
       </c>
       <c r="Q84" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="U84" s="2">
+        <v>1</v>
+      </c>
+      <c r="W84" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="U84" s="2">
-        <v>1</v>
-      </c>
-      <c r="W84" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="X84" s="2" t="s">
         <v>29</v>
@@ -6515,7 +6518,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="2">
         <v>3</v>
@@ -6553,13 +6556,13 @@
         <v>24</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U85" s="2">
         <v>1</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X85" s="2" t="s">
         <v>29</v>
@@ -6573,13 +6576,13 @@
         <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D86" s="2">
         <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
@@ -6611,16 +6614,16 @@
         <v>23</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q86" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="U86" s="2">
+        <v>1</v>
+      </c>
+      <c r="W86" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="U86" s="2">
-        <v>1</v>
-      </c>
-      <c r="W86" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="X86" s="2" t="s">
         <v>29</v>
@@ -6634,7 +6637,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="2">
         <v>3</v>
@@ -6672,13 +6675,13 @@
         <v>24</v>
       </c>
       <c r="Q87" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="U87" s="2">
+        <v>1</v>
+      </c>
+      <c r="W87" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="U87" s="2">
-        <v>1</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>29</v>
@@ -6692,7 +6695,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="2">
         <v>1</v>
@@ -6730,7 +6733,7 @@
         <v>24</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U88" s="2">
         <v>1</v>
@@ -6747,13 +6750,13 @@
         <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
@@ -6785,16 +6788,16 @@
         <v>23</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q89" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="U89" s="2">
+        <v>1</v>
+      </c>
+      <c r="W89" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="U89" s="2">
-        <v>1</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>29</v>
@@ -6808,7 +6811,7 @@
         <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -6843,25 +6846,25 @@
         <v>23</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R90" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="S90" s="2" t="s">
+      <c r="T90" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="T90" s="15" t="s">
+      <c r="U90" s="2">
+        <v>1</v>
+      </c>
+      <c r="W90" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="U90" s="2">
-        <v>1</v>
-      </c>
-      <c r="W90" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="X90" s="2" t="s">
         <v>29</v>
@@ -6875,7 +6878,7 @@
         <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="2">
         <v>3</v>
@@ -6913,13 +6916,13 @@
         <v>24</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U91" s="2">
         <v>1</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X91" s="2" t="s">
         <v>29</v>
@@ -6933,7 +6936,7 @@
         <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="2">
         <v>3</v>
@@ -6971,13 +6974,13 @@
         <v>24</v>
       </c>
       <c r="Q92" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U92" s="2">
+        <v>1</v>
+      </c>
+      <c r="W92" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="U92" s="2">
-        <v>1</v>
-      </c>
-      <c r="W92" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="X92" s="2" t="s">
         <v>29</v>
@@ -6991,7 +6994,7 @@
         <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="2">
         <v>3</v>
@@ -7029,13 +7032,13 @@
         <v>24</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U93" s="2">
         <v>1</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X93" s="2" t="s">
         <v>29</v>
@@ -7049,7 +7052,7 @@
         <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
@@ -7087,13 +7090,13 @@
         <v>24</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U94" s="2">
         <v>1</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X94" s="2" t="s">
         <v>29</v>
@@ -7107,7 +7110,7 @@
         <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="2">
         <v>3</v>
@@ -7145,13 +7148,13 @@
         <v>24</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U95" s="2">
         <v>1</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X95" s="2" t="s">
         <v>29</v>
@@ -7165,7 +7168,7 @@
         <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="2">
         <v>3</v>
@@ -7203,13 +7206,13 @@
         <v>24</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U96" s="2">
         <v>1</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X96" s="2" t="s">
         <v>29</v>
@@ -7223,7 +7226,7 @@
         <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="2">
         <v>3</v>
@@ -7261,13 +7264,13 @@
         <v>24</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U97" s="2">
         <v>1</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X97" s="2" t="s">
         <v>29</v>
@@ -7281,7 +7284,7 @@
         <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="2">
         <v>3</v>
@@ -7319,13 +7322,13 @@
         <v>24</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U98" s="2">
         <v>1</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X98" s="2" t="s">
         <v>29</v>
@@ -7339,7 +7342,7 @@
         <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="2">
         <v>3</v>
@@ -7377,13 +7380,13 @@
         <v>24</v>
       </c>
       <c r="Q99" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="U99" s="2">
+        <v>1</v>
+      </c>
+      <c r="W99" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="U99" s="2">
-        <v>1</v>
-      </c>
-      <c r="W99" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="X99" s="2" t="s">
         <v>29</v>
@@ -7397,7 +7400,7 @@
         <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="2">
         <v>3</v>
@@ -7435,13 +7438,13 @@
         <v>24</v>
       </c>
       <c r="Q100" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="U100" s="2">
+        <v>1</v>
+      </c>
+      <c r="W100" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="U100" s="2">
-        <v>1</v>
-      </c>
-      <c r="W100" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="X100" s="2" t="s">
         <v>29</v>
@@ -7455,13 +7458,13 @@
         <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="F101" s="2">
         <v>0</v>
@@ -7493,16 +7496,16 @@
         <v>23</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q101" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="U101" s="2">
+        <v>1</v>
+      </c>
+      <c r="W101" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="U101" s="2">
-        <v>1</v>
-      </c>
-      <c r="W101" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="X101" s="2" t="s">
         <v>29</v>
@@ -7516,7 +7519,7 @@
         <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
@@ -7555,7 +7558,7 @@
         <v>24</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U102" s="2">
         <v>1</v>
@@ -7572,13 +7575,13 @@
         <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="2">
         <v>-2</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
@@ -7610,16 +7613,16 @@
         <v>23</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q103" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="U103" s="2">
+        <v>1</v>
+      </c>
+      <c r="W103" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="U103" s="2">
-        <v>1</v>
-      </c>
-      <c r="W103" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="X103" s="2" t="s">
         <v>29</v>
@@ -7633,13 +7636,13 @@
         <v>114</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D104" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="D104" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="F104" s="2">
         <v>0</v>
@@ -7671,16 +7674,16 @@
         <v>23</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q104" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="U104" s="2">
+        <v>1</v>
+      </c>
+      <c r="W104" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="U104" s="2">
-        <v>1</v>
-      </c>
-      <c r="W104" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="X104" s="2" t="s">
         <v>29</v>
@@ -7694,7 +7697,7 @@
         <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="2">
         <v>3</v>
@@ -7732,13 +7735,13 @@
         <v>24</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U105" s="2">
         <v>1</v>
       </c>
       <c r="W105" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X105" s="2" t="s">
         <v>29</v>
@@ -7752,7 +7755,7 @@
         <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="2">
         <v>3</v>
@@ -7790,13 +7793,13 @@
         <v>24</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U106" s="2">
         <v>1</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X106" s="2" t="s">
         <v>29</v>
@@ -7810,7 +7813,7 @@
         <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="2">
         <v>3</v>
@@ -7848,13 +7851,13 @@
         <v>24</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U107" s="2">
         <v>1</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X107" s="2" t="s">
         <v>29</v>
@@ -7868,7 +7871,7 @@
         <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="2">
         <v>3</v>
@@ -7906,13 +7909,13 @@
         <v>24</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U108" s="2">
         <v>1</v>
       </c>
       <c r="W108" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X108" s="2" t="s">
         <v>29</v>
@@ -7926,7 +7929,7 @@
         <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="2">
         <v>3</v>
@@ -7964,13 +7967,13 @@
         <v>24</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U109" s="2">
         <v>1</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X109" s="2" t="s">
         <v>29</v>
@@ -7984,7 +7987,7 @@
         <v>120</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="3">
         <v>4</v>
@@ -8022,13 +8025,13 @@
         <v>24</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U110" s="3">
         <v>1</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X110" s="2" t="s">
         <v>29</v>
@@ -8042,7 +8045,7 @@
         <v>121</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="3">
         <v>3</v>
@@ -8080,13 +8083,13 @@
         <v>24</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U111" s="3">
         <v>1</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X111" s="2" t="s">
         <v>29</v>
@@ -8100,13 +8103,13 @@
         <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="2">
         <v>-2</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F112" s="2">
         <v>0</v>
@@ -8138,19 +8141,19 @@
         <v>23</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q112" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U112" s="2">
         <v>1</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X112" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -8161,19 +8164,19 @@
         <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D113" s="2">
-        <v>1</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="F113" s="2">
-        <v>0</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="H113" s="12">
         <v>43921.3125</v>
@@ -8202,19 +8205,19 @@
         <v>23</v>
       </c>
       <c r="P113" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U113" s="2">
         <v>1</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X113" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -8225,19 +8228,19 @@
         <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D114" s="2">
         <v>2</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="H114" s="12">
         <v>43921.3125</v>
@@ -8266,19 +8269,19 @@
         <v>23</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U114" s="2">
         <v>1</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X114" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:24" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -8289,7 +8292,7 @@
         <v>125</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D115" s="3">
         <v>4</v>
@@ -8327,13 +8330,13 @@
         <v>24</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U115" s="3">
         <v>1</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X115" s="3" t="s">
         <v>29</v>
@@ -8347,7 +8350,7 @@
         <v>126</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="3">
         <v>4</v>
@@ -8385,13 +8388,13 @@
         <v>24</v>
       </c>
       <c r="Q116" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="U116" s="3">
+        <v>1</v>
+      </c>
+      <c r="W116" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="U116" s="3">
-        <v>1</v>
-      </c>
-      <c r="W116" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="X116" s="3" t="s">
         <v>29</v>
@@ -8405,7 +8408,7 @@
         <v>127</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="3">
         <v>4</v>
@@ -8443,13 +8446,13 @@
         <v>24</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U117" s="3">
         <v>1</v>
       </c>
       <c r="W117" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X117" s="3" t="s">
         <v>29</v>
@@ -8463,7 +8466,7 @@
         <v>128</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="3">
         <v>0</v>
@@ -8501,13 +8504,13 @@
         <v>24</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U118" s="3">
         <v>1</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X118" s="3" t="s">
         <v>29</v>
@@ -8521,7 +8524,7 @@
         <v>129</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" s="3">
         <v>0</v>
@@ -8559,13 +8562,13 @@
         <v>24</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U119" s="3">
         <v>1</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X119" s="3" t="s">
         <v>29</v>
@@ -8579,16 +8582,16 @@
         <v>130</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D120" s="3">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="H120" s="12">
         <v>43942.3125</v>
@@ -8618,13 +8621,13 @@
         <v>24</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U120" s="3">
         <v>1</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X120" s="3" t="s">
         <v>29</v>
@@ -8638,13 +8641,13 @@
         <v>131</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D121" s="16">
         <v>0</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F121" s="16">
         <v>0</v>
@@ -8676,16 +8679,16 @@
         <v>23</v>
       </c>
       <c r="P121" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q121" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U121" s="16">
         <v>1</v>
       </c>
       <c r="W121" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X121" s="16" t="s">
         <v>29</v>
@@ -8699,13 +8702,13 @@
         <v>132</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D122" s="16">
         <v>5</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F122" s="16">
         <v>0</v>
@@ -8737,19 +8740,19 @@
         <v>23</v>
       </c>
       <c r="P122" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q122" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="U122" s="16">
+        <v>1</v>
+      </c>
+      <c r="W122" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="U122" s="16">
-        <v>1</v>
-      </c>
-      <c r="W122" s="16" t="s">
-        <v>344</v>
-      </c>
       <c r="X122" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:24" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -8760,19 +8763,19 @@
         <v>133</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D123" s="16">
         <v>3</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F123" s="16">
         <v>0</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H123" s="18">
         <v>43949.3125</v>
@@ -8801,16 +8804,16 @@
         <v>23</v>
       </c>
       <c r="P123" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q123" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="Q123" s="16" t="s">
+      <c r="U123" s="16">
+        <v>1</v>
+      </c>
+      <c r="W123" s="16" t="s">
         <v>347</v>
-      </c>
-      <c r="U123" s="16">
-        <v>1</v>
-      </c>
-      <c r="W123" s="16" t="s">
-        <v>348</v>
       </c>
       <c r="X123" s="16" t="s">
         <v>29</v>
@@ -8824,7 +8827,7 @@
         <v>134</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="16">
         <v>6</v>
@@ -8862,13 +8865,13 @@
         <v>24</v>
       </c>
       <c r="Q124" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U124" s="16">
         <v>1</v>
       </c>
       <c r="W124" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X124" s="16" t="s">
         <v>29</v>
@@ -8882,7 +8885,7 @@
         <v>135</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="16">
         <v>6</v>
@@ -8920,13 +8923,13 @@
         <v>24</v>
       </c>
       <c r="Q125" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U125" s="16">
         <v>1</v>
       </c>
       <c r="W125" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X125" s="16" t="s">
         <v>29</v>
@@ -8940,7 +8943,7 @@
         <v>136</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D126" s="16">
         <v>6</v>
@@ -8978,13 +8981,13 @@
         <v>24</v>
       </c>
       <c r="Q126" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U126" s="16">
         <v>1</v>
       </c>
       <c r="W126" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X126" s="16" t="s">
         <v>29</v>
@@ -8998,13 +9001,13 @@
         <v>137</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D127" s="16">
         <v>-1</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F127" s="16">
         <v>0</v>
@@ -9033,22 +9036,22 @@
         <v>1</v>
       </c>
       <c r="O127" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="P127" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q127" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="U127" s="16">
+        <v>1</v>
+      </c>
+      <c r="W127" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="X127" s="16" t="s">
         <v>350</v>
-      </c>
-      <c r="P127" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q127" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="U127" s="16">
-        <v>1</v>
-      </c>
-      <c r="W127" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="X127" s="16" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9059,7 +9062,7 @@
         <v>138</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D128" s="23">
         <v>8</v>
@@ -9069,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H128" s="24"/>
       <c r="I128" s="25"/>
@@ -9085,13 +9088,13 @@
         <v>1</v>
       </c>
       <c r="O128" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P128" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q128" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R128" s="23"/>
       <c r="S128" s="23"/>
@@ -9101,10 +9104,10 @@
       </c>
       <c r="V128" s="23"/>
       <c r="W128" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X128" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -9115,7 +9118,7 @@
         <v>139</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D129" s="23">
         <v>8</v>
@@ -9125,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H129" s="24"/>
       <c r="I129" s="25"/>
@@ -9141,13 +9144,13 @@
         <v>1</v>
       </c>
       <c r="O129" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P129" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q129" s="33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R129" s="23"/>
       <c r="S129" s="23"/>
@@ -9157,10 +9160,10 @@
       </c>
       <c r="V129" s="23"/>
       <c r="W129" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X129" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:24" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -9171,13 +9174,13 @@
         <v>140</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D130" s="23">
         <v>3</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F130" s="23">
         <v>0</v>
@@ -9204,22 +9207,22 @@
         <v>1</v>
       </c>
       <c r="O130" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="P130" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="P130" s="23" t="s">
+      <c r="Q130" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="Q130" s="35" t="s">
+      <c r="U130" s="23">
+        <v>1</v>
+      </c>
+      <c r="W130" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="U130" s="23">
-        <v>1</v>
-      </c>
-      <c r="W130" s="23" t="s">
+      <c r="X130" s="23" t="s">
         <v>377</v>
-      </c>
-      <c r="X130" s="23" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -9231,37 +9234,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -9269,38 +9261,49 @@
 </settings>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_debug/game_activity_config_new.xlsx
+++ b/config_debug/game_activity_config_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1302,7 +1302,8 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>亲爱的玩家朋友们：\n欢乐天天捕鱼将于2020年6月9日（周二）上午9点开启删档不付费测试，安卓手机可参与游戏，测试期间每天可领1000万游戏币，参与游戏排行榜更可领取丰厚奖励。\n测试期间如遇到任务问题或有更好的建议请加客服QQ：4008882620进行反馈。\n\n                     官方运营团队\n                                               2019年6月3日</t>
+    <t>亲爱的玩家朋友们：\n欢乐天天捕鱼将于2020年6月9日（周二）上午9点开启删档不付费测试，安卓手机可参与游戏，测试期间每天可领1000万游戏币，参与游戏排行榜更可领取丰厚奖励。\n测试期间如遇到任务问题或有更好的建议请加客服QQ：4008882620进行反馈。\n\n                                                                      官方运营团队\n                                                                      2019年6月3日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1836,10 +1837,10 @@
   <dimension ref="A1:X130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2046,7 +2047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -9234,26 +9235,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -9261,49 +9273,38 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_debug/game_activity_config_new.xlsx
+++ b/config_debug/game_activity_config_new.xlsx
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>不删号内测公告</t>
   </si>
   <si>
     <t>bshncgg</t>
@@ -1303,6 +1300,10 @@
   </si>
   <si>
     <t>亲爱的玩家朋友们：\n欢乐天天捕鱼将于2020年6月9日（周二）上午9点开启删档不付费测试，安卓手机可参与游戏，测试期间每天可领1000万游戏币，参与游戏排行榜更可领取丰厚奖励。\n测试期间如遇到任务问题或有更好的建议请加客服QQ：4008882620进行反馈。\n\n                                                                      官方运营团队\n                                                                      2019年6月3日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>删档内测公告</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1837,10 +1838,10 @@
   <dimension ref="A1:X130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2055,13 +2056,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -2081,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
@@ -2096,7 +2097,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2107,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -2137,7 +2138,7 @@
         <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -2147,10 +2148,10 @@
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2161,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10">
         <v>6</v>
@@ -2185,13 +2186,13 @@
         <v>1</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -2201,10 +2202,10 @@
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
@@ -2215,7 +2216,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="10">
         <v>4</v>
@@ -2239,13 +2240,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
@@ -2254,7 +2255,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2265,7 +2266,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10">
         <v>4</v>
@@ -2303,10 +2304,10 @@
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2317,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10">
         <v>2</v>
@@ -2347,7 +2348,7 @@
         <v>24</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -2357,10 +2358,10 @@
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2371,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2401,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -2411,10 +2412,10 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2425,13 +2426,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
         <v>3</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -2451,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
@@ -2466,7 +2467,7 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2477,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -2501,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
@@ -2516,7 +2517,7 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2527,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -2557,7 +2558,7 @@
         <v>24</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -2567,10 +2568,10 @@
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2581,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="10">
         <v>5</v>
@@ -2613,7 +2614,7 @@
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -2625,10 +2626,10 @@
         <v>13</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2639,7 +2640,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10">
         <v>6</v>
@@ -2669,7 +2670,7 @@
         <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -2679,10 +2680,10 @@
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2693,7 +2694,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="10">
         <v>7</v>
@@ -2723,7 +2724,7 @@
         <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -2733,10 +2734,10 @@
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2747,7 +2748,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="10">
         <v>-11</v>
@@ -2777,7 +2778,7 @@
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -2789,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>29</v>
@@ -2803,7 +2804,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10">
         <v>-12</v>
@@ -2833,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -2843,10 +2844,10 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2857,7 +2858,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="10">
         <v>-13</v>
@@ -2887,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -2897,7 +2898,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X19" s="7" t="s">
         <v>29</v>
@@ -2911,7 +2912,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="10">
         <v>-14</v>
@@ -2941,7 +2942,7 @@
         <v>24</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2953,7 +2954,7 @@
         <v>28</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X20" s="7" t="s">
         <v>29</v>
@@ -2967,7 +2968,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="10">
         <v>-15</v>
@@ -2997,7 +2998,7 @@
         <v>24</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -3007,10 +3008,10 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3021,7 +3022,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="10">
         <v>-16</v>
@@ -3051,7 +3052,7 @@
         <v>24</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -3063,7 +3064,7 @@
         <v>29</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X22" s="7" t="s">
         <v>29</v>
@@ -3077,7 +3078,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="10">
         <v>-17</v>
@@ -3107,7 +3108,7 @@
         <v>24</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -3117,10 +3118,10 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3131,7 +3132,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="10">
         <v>-18</v>
@@ -3161,7 +3162,7 @@
         <v>24</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -3173,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="W24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X24" s="7" t="s">
         <v>29</v>
@@ -3187,7 +3188,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="10">
         <v>-19</v>
@@ -3217,7 +3218,7 @@
         <v>24</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -3227,10 +3228,10 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3241,7 +3242,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="10">
         <v>8</v>
@@ -3271,7 +3272,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -3282,7 +3283,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3293,7 +3294,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="10">
         <v>-21</v>
@@ -3323,7 +3324,7 @@
         <v>24</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -3334,7 +3335,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3345,7 +3346,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="10">
         <v>-22</v>
@@ -3375,7 +3376,7 @@
         <v>24</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -3385,10 +3386,10 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3399,7 +3400,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="10">
         <v>-23</v>
@@ -3429,7 +3430,7 @@
         <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -3439,7 +3440,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X29" s="7" t="s">
         <v>29</v>
@@ -3453,13 +3454,13 @@
         <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="10">
         <v>4</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
@@ -3485,7 +3486,7 @@
         <v>24</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -3495,10 +3496,10 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3509,7 +3510,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="10">
         <v>-24</v>
@@ -3539,7 +3540,7 @@
         <v>24</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -3549,10 +3550,10 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3563,7 +3564,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="10">
         <v>-26</v>
@@ -3593,7 +3594,7 @@
         <v>24</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -3603,7 +3604,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X32" s="7" t="s">
         <v>29</v>
@@ -3617,7 +3618,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="10">
         <v>-24</v>
@@ -3647,7 +3648,7 @@
         <v>24</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
@@ -3659,10 +3660,10 @@
         <v>38</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3673,7 +3674,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="10">
         <v>-23</v>
@@ -3703,7 +3704,7 @@
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -3713,10 +3714,10 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3727,7 +3728,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="10">
         <v>-26</v>
@@ -3757,7 +3758,7 @@
         <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -3767,10 +3768,10 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3781,7 +3782,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="10">
         <v>-27</v>
@@ -3811,7 +3812,7 @@
         <v>24</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -3821,10 +3822,10 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3835,13 +3836,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="10">
         <v>3</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
@@ -3867,7 +3868,7 @@
         <v>24</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
@@ -3877,10 +3878,10 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3891,7 +3892,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="10">
         <v>-31</v>
@@ -3921,7 +3922,7 @@
         <v>24</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -3931,7 +3932,7 @@
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X38" s="7" t="s">
         <v>29</v>
@@ -3945,7 +3946,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="2">
         <v>-30</v>
@@ -3975,7 +3976,7 @@
         <v>24</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -3985,7 +3986,7 @@
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X39" s="7" t="s">
         <v>29</v>
@@ -3999,7 +4000,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="10">
         <v>7</v>
@@ -4029,7 +4030,7 @@
         <v>24</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -4039,10 +4040,10 @@
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4053,7 +4054,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="10">
         <v>1</v>
@@ -4083,7 +4084,7 @@
         <v>24</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -4093,10 +4094,10 @@
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X41" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4107,7 +4108,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
@@ -4137,7 +4138,7 @@
         <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -4147,10 +4148,10 @@
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4161,7 +4162,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="10">
         <v>-1</v>
@@ -4191,7 +4192,7 @@
         <v>24</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
@@ -4201,7 +4202,7 @@
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X43" s="7" t="s">
         <v>29</v>
@@ -4215,7 +4216,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="10">
         <v>-2</v>
@@ -4245,7 +4246,7 @@
         <v>24</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -4267,7 +4268,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="10">
         <v>-50</v>
@@ -4294,10 +4295,10 @@
         <v>23</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
@@ -4308,7 +4309,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4319,7 +4320,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="10">
         <v>2</v>
@@ -4349,7 +4350,7 @@
         <v>24</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -4359,7 +4360,7 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X46" s="7" t="s">
         <v>29</v>
@@ -4373,7 +4374,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="10">
         <v>1</v>
@@ -4403,7 +4404,7 @@
         <v>24</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
@@ -4413,7 +4414,7 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X47" s="7" t="s">
         <v>29</v>
@@ -4427,19 +4428,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="10">
         <v>8</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -4461,7 +4462,7 @@
         <v>24</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -4471,10 +4472,10 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4485,7 +4486,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="10">
         <v>-1</v>
@@ -4515,7 +4516,7 @@
         <v>24</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -4525,7 +4526,7 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X49" s="7" t="s">
         <v>29</v>
@@ -4539,7 +4540,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
@@ -4569,7 +4570,7 @@
         <v>24</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -4579,7 +4580,7 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X50" s="7" t="s">
         <v>29</v>
@@ -4593,19 +4594,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -4624,10 +4625,10 @@
         <v>23</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
@@ -4637,10 +4638,10 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4651,7 +4652,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="10">
         <v>-31</v>
@@ -4681,7 +4682,7 @@
         <v>24</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -4691,7 +4692,7 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X52" s="7" t="s">
         <v>29</v>
@@ -4705,7 +4706,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
@@ -4735,7 +4736,7 @@
         <v>24</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
@@ -4745,7 +4746,7 @@
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X53" s="7" t="s">
         <v>29</v>
@@ -4759,7 +4760,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="10">
         <v>4</v>
@@ -4789,7 +4790,7 @@
         <v>24</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
@@ -4799,10 +4800,10 @@
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X54" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -4813,13 +4814,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="10">
         <v>9</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F55" s="7">
         <v>0</v>
@@ -4845,7 +4846,7 @@
         <v>24</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
@@ -4855,10 +4856,10 @@
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X55" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4869,7 +4870,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
@@ -4899,7 +4900,7 @@
         <v>24</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
@@ -4909,7 +4910,7 @@
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X56" s="7" t="s">
         <v>29</v>
@@ -4923,7 +4924,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="10">
         <v>-51</v>
@@ -4953,7 +4954,7 @@
         <v>24</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -4963,7 +4964,7 @@
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X57" s="7" t="s">
         <v>29</v>
@@ -4977,7 +4978,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="10">
         <v>4</v>
@@ -5007,7 +5008,7 @@
         <v>24</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
@@ -5017,10 +5018,10 @@
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X58" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5031,7 +5032,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="10">
         <v>4</v>
@@ -5061,7 +5062,7 @@
         <v>24</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
@@ -5071,10 +5072,10 @@
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X59" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5085,7 +5086,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
@@ -5115,7 +5116,7 @@
         <v>24</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
@@ -5125,7 +5126,7 @@
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X60" s="7" t="s">
         <v>29</v>
@@ -5139,7 +5140,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="10">
         <v>7</v>
@@ -5169,7 +5170,7 @@
         <v>24</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
@@ -5179,10 +5180,10 @@
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X61" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5193,7 +5194,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="10">
         <v>8</v>
@@ -5223,7 +5224,7 @@
         <v>24</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
@@ -5233,10 +5234,10 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X62" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5247,7 +5248,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="10">
         <v>1</v>
@@ -5274,10 +5275,10 @@
         <v>23</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
@@ -5299,7 +5300,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="10">
         <v>2</v>
@@ -5326,10 +5327,10 @@
         <v>23</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -5351,7 +5352,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="10">
         <v>1</v>
@@ -5381,7 +5382,7 @@
         <v>24</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
@@ -5391,10 +5392,10 @@
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X65" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5405,7 +5406,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="10">
         <v>7</v>
@@ -5435,7 +5436,7 @@
         <v>24</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
@@ -5445,10 +5446,10 @@
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X66" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5459,7 +5460,7 @@
         <v>10000</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="10">
         <v>7</v>
@@ -5469,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -5491,7 +5492,7 @@
         <v>24</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
@@ -5501,10 +5502,10 @@
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X67" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5515,7 +5516,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="10">
         <v>6</v>
@@ -5545,7 +5546,7 @@
         <v>24</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
@@ -5555,10 +5556,10 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X68" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -5569,7 +5570,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="10">
         <v>5</v>
@@ -5609,7 +5610,7 @@
         <v>24</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
@@ -5619,7 +5620,7 @@
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X69" s="7" t="s">
         <v>29</v>
@@ -5633,7 +5634,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="2">
         <v>2</v>
@@ -5671,13 +5672,13 @@
         <v>24</v>
       </c>
       <c r="Q70" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="U70" s="2">
+        <v>1</v>
+      </c>
+      <c r="W70" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="U70" s="2">
-        <v>1</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="X70" s="7" t="s">
         <v>29</v>
@@ -5691,7 +5692,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="10">
         <v>0</v>
@@ -5731,7 +5732,7 @@
         <v>24</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
@@ -5740,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X71" s="7" t="s">
         <v>29</v>
@@ -5754,7 +5755,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -5789,19 +5790,19 @@
         <v>23</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q72" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="R72" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="R72" s="2" t="s">
+      <c r="S72" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="S72" s="2" t="s">
+      <c r="T72" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="U72" s="2">
         <v>1</v>
@@ -5818,7 +5819,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -5856,13 +5857,13 @@
         <v>24</v>
       </c>
       <c r="Q73" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="U73" s="2">
+        <v>1</v>
+      </c>
+      <c r="W73" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="U73" s="2">
-        <v>1</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="X73" s="2" t="s">
         <v>29</v>
@@ -5876,7 +5877,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -5914,13 +5915,13 @@
         <v>24</v>
       </c>
       <c r="Q74" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="U74" s="2">
+        <v>1</v>
+      </c>
+      <c r="W74" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="U74" s="2">
-        <v>1</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="X74" s="2" t="s">
         <v>29</v>
@@ -5934,7 +5935,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="2">
         <v>0</v>
@@ -5972,13 +5973,13 @@
         <v>24</v>
       </c>
       <c r="Q75" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="U75" s="2">
+        <v>1</v>
+      </c>
+      <c r="W75" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="U75" s="2">
-        <v>1</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="X75" s="2" t="s">
         <v>29</v>
@@ -5992,7 +5993,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
@@ -6030,7 +6031,7 @@
         <v>24</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
@@ -6040,7 +6041,7 @@
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X76" s="2" t="s">
         <v>29</v>
@@ -6054,7 +6055,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77" s="2">
         <v>3</v>
@@ -6092,13 +6093,13 @@
         <v>24</v>
       </c>
       <c r="Q77" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="U77" s="2">
+        <v>1</v>
+      </c>
+      <c r="W77" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="U77" s="2">
-        <v>1</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="X77" s="2" t="s">
         <v>29</v>
@@ -6112,7 +6113,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D78" s="2">
         <v>3</v>
@@ -6150,13 +6151,13 @@
         <v>24</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U78" s="2">
         <v>1</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X78" s="2" t="s">
         <v>29</v>
@@ -6170,13 +6171,13 @@
         <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D79" s="2">
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -6208,16 +6209,16 @@
         <v>23</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q79" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="U79" s="2">
+        <v>1</v>
+      </c>
+      <c r="W79" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="U79" s="2">
-        <v>1</v>
-      </c>
-      <c r="W79" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>29</v>
@@ -6231,7 +6232,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D80" s="2">
         <v>3</v>
@@ -6269,13 +6270,13 @@
         <v>24</v>
       </c>
       <c r="Q80" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="U80" s="2">
+        <v>1</v>
+      </c>
+      <c r="W80" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="U80" s="2">
-        <v>1</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>29</v>
@@ -6289,7 +6290,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -6327,7 +6328,7 @@
         <v>24</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U81" s="2">
         <v>1</v>
@@ -6344,13 +6345,13 @@
         <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
@@ -6382,16 +6383,16 @@
         <v>23</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q82" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="U82" s="2">
+        <v>1</v>
+      </c>
+      <c r="W82" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="U82" s="2">
-        <v>1</v>
-      </c>
-      <c r="W82" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="X82" s="2" t="s">
         <v>29</v>
@@ -6405,7 +6406,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -6441,13 +6442,13 @@
         <v>24</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U83" s="2">
         <v>1</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X83" s="2" t="s">
         <v>29</v>
@@ -6461,7 +6462,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="2">
         <v>3</v>
@@ -6499,13 +6500,13 @@
         <v>24</v>
       </c>
       <c r="Q84" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="U84" s="2">
+        <v>1</v>
+      </c>
+      <c r="W84" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="U84" s="2">
-        <v>1</v>
-      </c>
-      <c r="W84" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="X84" s="2" t="s">
         <v>29</v>
@@ -6519,7 +6520,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="2">
         <v>3</v>
@@ -6557,13 +6558,13 @@
         <v>24</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U85" s="2">
         <v>1</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X85" s="2" t="s">
         <v>29</v>
@@ -6577,13 +6578,13 @@
         <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D86" s="2">
         <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
@@ -6615,16 +6616,16 @@
         <v>23</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q86" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="U86" s="2">
+        <v>1</v>
+      </c>
+      <c r="W86" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="U86" s="2">
-        <v>1</v>
-      </c>
-      <c r="W86" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="X86" s="2" t="s">
         <v>29</v>
@@ -6638,7 +6639,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="2">
         <v>3</v>
@@ -6676,13 +6677,13 @@
         <v>24</v>
       </c>
       <c r="Q87" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="U87" s="2">
+        <v>1</v>
+      </c>
+      <c r="W87" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="U87" s="2">
-        <v>1</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>29</v>
@@ -6696,7 +6697,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="2">
         <v>1</v>
@@ -6734,7 +6735,7 @@
         <v>24</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U88" s="2">
         <v>1</v>
@@ -6751,13 +6752,13 @@
         <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
@@ -6789,16 +6790,16 @@
         <v>23</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q89" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="U89" s="2">
+        <v>1</v>
+      </c>
+      <c r="W89" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="U89" s="2">
-        <v>1</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>29</v>
@@ -6812,7 +6813,7 @@
         <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -6847,25 +6848,25 @@
         <v>23</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R90" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S90" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="S90" s="2" t="s">
+      <c r="T90" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="T90" s="15" t="s">
+      <c r="U90" s="2">
+        <v>1</v>
+      </c>
+      <c r="W90" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="U90" s="2">
-        <v>1</v>
-      </c>
-      <c r="W90" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="X90" s="2" t="s">
         <v>29</v>
@@ -6879,7 +6880,7 @@
         <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="2">
         <v>3</v>
@@ -6917,13 +6918,13 @@
         <v>24</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U91" s="2">
         <v>1</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X91" s="2" t="s">
         <v>29</v>
@@ -6937,7 +6938,7 @@
         <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="2">
         <v>3</v>
@@ -6975,13 +6976,13 @@
         <v>24</v>
       </c>
       <c r="Q92" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="U92" s="2">
+        <v>1</v>
+      </c>
+      <c r="W92" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="U92" s="2">
-        <v>1</v>
-      </c>
-      <c r="W92" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="X92" s="2" t="s">
         <v>29</v>
@@ -6995,7 +6996,7 @@
         <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="2">
         <v>3</v>
@@ -7033,13 +7034,13 @@
         <v>24</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U93" s="2">
         <v>1</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X93" s="2" t="s">
         <v>29</v>
@@ -7053,7 +7054,7 @@
         <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
@@ -7091,13 +7092,13 @@
         <v>24</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U94" s="2">
         <v>1</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X94" s="2" t="s">
         <v>29</v>
@@ -7111,7 +7112,7 @@
         <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="2">
         <v>3</v>
@@ -7149,13 +7150,13 @@
         <v>24</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U95" s="2">
         <v>1</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X95" s="2" t="s">
         <v>29</v>
@@ -7169,7 +7170,7 @@
         <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="2">
         <v>3</v>
@@ -7207,13 +7208,13 @@
         <v>24</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U96" s="2">
         <v>1</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X96" s="2" t="s">
         <v>29</v>
@@ -7227,7 +7228,7 @@
         <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="2">
         <v>3</v>
@@ -7265,13 +7266,13 @@
         <v>24</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U97" s="2">
         <v>1</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X97" s="2" t="s">
         <v>29</v>
@@ -7285,7 +7286,7 @@
         <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="2">
         <v>3</v>
@@ -7323,13 +7324,13 @@
         <v>24</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U98" s="2">
         <v>1</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X98" s="2" t="s">
         <v>29</v>
@@ -7343,7 +7344,7 @@
         <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="2">
         <v>3</v>
@@ -7381,13 +7382,13 @@
         <v>24</v>
       </c>
       <c r="Q99" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="U99" s="2">
+        <v>1</v>
+      </c>
+      <c r="W99" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="U99" s="2">
-        <v>1</v>
-      </c>
-      <c r="W99" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="X99" s="2" t="s">
         <v>29</v>
@@ -7401,7 +7402,7 @@
         <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="2">
         <v>3</v>
@@ -7439,13 +7440,13 @@
         <v>24</v>
       </c>
       <c r="Q100" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="U100" s="2">
+        <v>1</v>
+      </c>
+      <c r="W100" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="U100" s="2">
-        <v>1</v>
-      </c>
-      <c r="W100" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="X100" s="2" t="s">
         <v>29</v>
@@ -7459,13 +7460,13 @@
         <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="F101" s="2">
         <v>0</v>
@@ -7497,16 +7498,16 @@
         <v>23</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q101" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="U101" s="2">
+        <v>1</v>
+      </c>
+      <c r="W101" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="U101" s="2">
-        <v>1</v>
-      </c>
-      <c r="W101" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="X101" s="2" t="s">
         <v>29</v>
@@ -7520,7 +7521,7 @@
         <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
@@ -7559,7 +7560,7 @@
         <v>24</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U102" s="2">
         <v>1</v>
@@ -7576,13 +7577,13 @@
         <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="2">
         <v>-2</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
@@ -7614,16 +7615,16 @@
         <v>23</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q103" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="U103" s="2">
+        <v>1</v>
+      </c>
+      <c r="W103" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="U103" s="2">
-        <v>1</v>
-      </c>
-      <c r="W103" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="X103" s="2" t="s">
         <v>29</v>
@@ -7637,13 +7638,13 @@
         <v>114</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D104" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="D104" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="F104" s="2">
         <v>0</v>
@@ -7675,16 +7676,16 @@
         <v>23</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q104" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="U104" s="2">
+        <v>1</v>
+      </c>
+      <c r="W104" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="U104" s="2">
-        <v>1</v>
-      </c>
-      <c r="W104" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="X104" s="2" t="s">
         <v>29</v>
@@ -7698,7 +7699,7 @@
         <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="2">
         <v>3</v>
@@ -7736,13 +7737,13 @@
         <v>24</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U105" s="2">
         <v>1</v>
       </c>
       <c r="W105" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X105" s="2" t="s">
         <v>29</v>
@@ -7756,7 +7757,7 @@
         <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="2">
         <v>3</v>
@@ -7794,13 +7795,13 @@
         <v>24</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U106" s="2">
         <v>1</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X106" s="2" t="s">
         <v>29</v>
@@ -7814,7 +7815,7 @@
         <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="2">
         <v>3</v>
@@ -7852,13 +7853,13 @@
         <v>24</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U107" s="2">
         <v>1</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X107" s="2" t="s">
         <v>29</v>
@@ -7872,7 +7873,7 @@
         <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="2">
         <v>3</v>
@@ -7910,13 +7911,13 @@
         <v>24</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U108" s="2">
         <v>1</v>
       </c>
       <c r="W108" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X108" s="2" t="s">
         <v>29</v>
@@ -7930,7 +7931,7 @@
         <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="2">
         <v>3</v>
@@ -7968,13 +7969,13 @@
         <v>24</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U109" s="2">
         <v>1</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X109" s="2" t="s">
         <v>29</v>
@@ -7988,7 +7989,7 @@
         <v>120</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="3">
         <v>4</v>
@@ -8026,13 +8027,13 @@
         <v>24</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U110" s="3">
         <v>1</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X110" s="2" t="s">
         <v>29</v>
@@ -8046,7 +8047,7 @@
         <v>121</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="3">
         <v>3</v>
@@ -8084,13 +8085,13 @@
         <v>24</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U111" s="3">
         <v>1</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X111" s="2" t="s">
         <v>29</v>
@@ -8104,13 +8105,13 @@
         <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="2">
         <v>-2</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F112" s="2">
         <v>0</v>
@@ -8142,19 +8143,19 @@
         <v>23</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q112" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U112" s="2">
         <v>1</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X112" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -8165,19 +8166,19 @@
         <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D113" s="2">
-        <v>1</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="F113" s="2">
-        <v>0</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="H113" s="12">
         <v>43921.3125</v>
@@ -8206,19 +8207,19 @@
         <v>23</v>
       </c>
       <c r="P113" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U113" s="2">
         <v>1</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X113" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -8229,19 +8230,19 @@
         <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D114" s="2">
         <v>2</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="H114" s="12">
         <v>43921.3125</v>
@@ -8270,19 +8271,19 @@
         <v>23</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U114" s="2">
         <v>1</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X114" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:24" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -8293,7 +8294,7 @@
         <v>125</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="3">
         <v>4</v>
@@ -8331,13 +8332,13 @@
         <v>24</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U115" s="3">
         <v>1</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X115" s="3" t="s">
         <v>29</v>
@@ -8351,7 +8352,7 @@
         <v>126</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="3">
         <v>4</v>
@@ -8389,13 +8390,13 @@
         <v>24</v>
       </c>
       <c r="Q116" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="U116" s="3">
+        <v>1</v>
+      </c>
+      <c r="W116" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="U116" s="3">
-        <v>1</v>
-      </c>
-      <c r="W116" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="X116" s="3" t="s">
         <v>29</v>
@@ -8409,7 +8410,7 @@
         <v>127</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="3">
         <v>4</v>
@@ -8447,13 +8448,13 @@
         <v>24</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U117" s="3">
         <v>1</v>
       </c>
       <c r="W117" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X117" s="3" t="s">
         <v>29</v>
@@ -8467,7 +8468,7 @@
         <v>128</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="3">
         <v>0</v>
@@ -8505,13 +8506,13 @@
         <v>24</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U118" s="3">
         <v>1</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X118" s="3" t="s">
         <v>29</v>
@@ -8525,7 +8526,7 @@
         <v>129</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" s="3">
         <v>0</v>
@@ -8563,13 +8564,13 @@
         <v>24</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U119" s="3">
         <v>1</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X119" s="3" t="s">
         <v>29</v>
@@ -8583,16 +8584,16 @@
         <v>130</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="D120" s="3">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="H120" s="12">
         <v>43942.3125</v>
@@ -8622,13 +8623,13 @@
         <v>24</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U120" s="3">
         <v>1</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X120" s="3" t="s">
         <v>29</v>
@@ -8642,13 +8643,13 @@
         <v>131</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D121" s="16">
         <v>0</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F121" s="16">
         <v>0</v>
@@ -8680,16 +8681,16 @@
         <v>23</v>
       </c>
       <c r="P121" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q121" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U121" s="16">
         <v>1</v>
       </c>
       <c r="W121" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X121" s="16" t="s">
         <v>29</v>
@@ -8703,13 +8704,13 @@
         <v>132</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D122" s="16">
         <v>5</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F122" s="16">
         <v>0</v>
@@ -8741,19 +8742,19 @@
         <v>23</v>
       </c>
       <c r="P122" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q122" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="U122" s="16">
+        <v>1</v>
+      </c>
+      <c r="W122" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="U122" s="16">
-        <v>1</v>
-      </c>
-      <c r="W122" s="16" t="s">
-        <v>343</v>
-      </c>
       <c r="X122" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:24" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -8764,19 +8765,19 @@
         <v>133</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D123" s="16">
         <v>3</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F123" s="16">
         <v>0</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H123" s="18">
         <v>43949.3125</v>
@@ -8805,16 +8806,16 @@
         <v>23</v>
       </c>
       <c r="P123" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q123" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="Q123" s="16" t="s">
+      <c r="U123" s="16">
+        <v>1</v>
+      </c>
+      <c r="W123" s="16" t="s">
         <v>346</v>
-      </c>
-      <c r="U123" s="16">
-        <v>1</v>
-      </c>
-      <c r="W123" s="16" t="s">
-        <v>347</v>
       </c>
       <c r="X123" s="16" t="s">
         <v>29</v>
@@ -8828,7 +8829,7 @@
         <v>134</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D124" s="16">
         <v>6</v>
@@ -8866,13 +8867,13 @@
         <v>24</v>
       </c>
       <c r="Q124" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U124" s="16">
         <v>1</v>
       </c>
       <c r="W124" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X124" s="16" t="s">
         <v>29</v>
@@ -8886,7 +8887,7 @@
         <v>135</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D125" s="16">
         <v>6</v>
@@ -8924,13 +8925,13 @@
         <v>24</v>
       </c>
       <c r="Q125" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U125" s="16">
         <v>1</v>
       </c>
       <c r="W125" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X125" s="16" t="s">
         <v>29</v>
@@ -8944,7 +8945,7 @@
         <v>136</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D126" s="16">
         <v>6</v>
@@ -8982,13 +8983,13 @@
         <v>24</v>
       </c>
       <c r="Q126" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U126" s="16">
         <v>1</v>
       </c>
       <c r="W126" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X126" s="16" t="s">
         <v>29</v>
@@ -9002,13 +9003,13 @@
         <v>137</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D127" s="16">
         <v>-1</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F127" s="16">
         <v>0</v>
@@ -9037,22 +9038,22 @@
         <v>1</v>
       </c>
       <c r="O127" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="P127" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q127" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="U127" s="16">
+        <v>1</v>
+      </c>
+      <c r="W127" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="X127" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="P127" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q127" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="U127" s="16">
-        <v>1</v>
-      </c>
-      <c r="W127" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="X127" s="16" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9063,7 +9064,7 @@
         <v>138</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D128" s="23">
         <v>8</v>
@@ -9073,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H128" s="24"/>
       <c r="I128" s="25"/>
@@ -9089,13 +9090,13 @@
         <v>1</v>
       </c>
       <c r="O128" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P128" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q128" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R128" s="23"/>
       <c r="S128" s="23"/>
@@ -9105,10 +9106,10 @@
       </c>
       <c r="V128" s="23"/>
       <c r="W128" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X128" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -9119,7 +9120,7 @@
         <v>139</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D129" s="23">
         <v>8</v>
@@ -9129,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H129" s="24"/>
       <c r="I129" s="25"/>
@@ -9145,13 +9146,13 @@
         <v>1</v>
       </c>
       <c r="O129" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P129" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q129" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R129" s="23"/>
       <c r="S129" s="23"/>
@@ -9161,10 +9162,10 @@
       </c>
       <c r="V129" s="23"/>
       <c r="W129" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X129" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:24" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -9175,13 +9176,13 @@
         <v>140</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D130" s="23">
         <v>3</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F130" s="23">
         <v>0</v>
@@ -9208,22 +9209,22 @@
         <v>1</v>
       </c>
       <c r="O130" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="P130" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="P130" s="23" t="s">
+      <c r="Q130" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="Q130" s="35" t="s">
+      <c r="U130" s="23">
+        <v>1</v>
+      </c>
+      <c r="W130" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="U130" s="23">
-        <v>1</v>
-      </c>
-      <c r="W130" s="23" t="s">
+      <c r="X130" s="23" t="s">
         <v>376</v>
-      </c>
-      <c r="X130" s="23" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -9235,37 +9236,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -9273,38 +9249,63 @@
 </settings>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_debug/game_activity_config_new.xlsx
+++ b/config_debug/game_activity_config_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
   <si>
     <t>id|行号</t>
   </si>
@@ -1304,6 +1304,18 @@
   </si>
   <si>
     <t>删档内测公告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼排行榜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_drb_cs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by_drb_cs","panel",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1446,7 +1458,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1557,6 +1569,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1835,13 +1851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X130"/>
+  <dimension ref="A1:X131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="A131" sqref="A131:XFD131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9227,6 +9243,64 @@
         <v>376</v>
       </c>
     </row>
+    <row r="131" spans="1:24" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A131" s="16">
+        <v>130</v>
+      </c>
+      <c r="B131" s="37">
+        <v>141</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D131" s="16">
+        <v>0</v>
+      </c>
+      <c r="F131" s="16">
+        <v>1</v>
+      </c>
+      <c r="H131" s="18">
+        <v>43949.3125</v>
+      </c>
+      <c r="I131" s="19">
+        <f t="shared" ref="I131" si="8">(H131-70*365-19)*86400-8*3600</f>
+        <v>1588030200</v>
+      </c>
+      <c r="J131" s="38">
+        <v>-1</v>
+      </c>
+      <c r="K131" s="18">
+        <v>43955.999988425923</v>
+      </c>
+      <c r="L131" s="19">
+        <f t="shared" ref="L131" si="9">(K131-70*365-19)*86400-8*3600</f>
+        <v>1588607998.9999998</v>
+      </c>
+      <c r="M131" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N131" s="16">
+        <v>1</v>
+      </c>
+      <c r="O131" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P131" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q131" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="U131" s="16">
+        <v>1</v>
+      </c>
+      <c r="W131" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="X131" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:X130"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -9236,12 +9310,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -9249,22 +9335,10 @@
 </settings>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9275,13 +9349,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -9293,13 +9367,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_debug/game_activity_config_new.xlsx
+++ b/config_debug/game_activity_config_new.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="386">
   <si>
     <t>id|行号</t>
   </si>
@@ -1316,6 +1316,18 @@
   </si>
   <si>
     <t>"by_drb_cs","panel",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家微信交流群</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxjl_dk_bg</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1851,13 +1863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X131"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A131" sqref="A131:XFD131"/>
+      <selection pane="bottomRight" activeCell="W132" sqref="W132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9301,6 +9313,61 @@
         <v>29</v>
       </c>
     </row>
+    <row r="132" spans="1:24" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A132" s="16">
+        <v>131</v>
+      </c>
+      <c r="B132" s="37">
+        <v>142</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D132" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F132" s="16">
+        <v>1</v>
+      </c>
+      <c r="H132" s="18">
+        <v>43949.3125</v>
+      </c>
+      <c r="I132" s="19">
+        <f>(H132-70*365-19)*86400-8*3600</f>
+        <v>1588030200</v>
+      </c>
+      <c r="J132" s="38">
+        <v>-1</v>
+      </c>
+      <c r="K132" s="18">
+        <v>43955.999988425923</v>
+      </c>
+      <c r="L132" s="19">
+        <f>(K132-70*365-19)*86400-8*3600</f>
+        <v>1588607998.9999998</v>
+      </c>
+      <c r="M132" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N132" s="16">
+        <v>1</v>
+      </c>
+      <c r="O132" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P132" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q132" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="U132" s="16">
+        <v>1</v>
+      </c>
+      <c r="X132" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:X130"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -9310,24 +9377,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -9335,51 +9409,44 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_debug/game_activity_config_new.xlsx
+++ b/config_debug/game_activity_config_new.xlsx
@@ -1107,9 +1107,6 @@
     <t>捕鱼奖池</t>
   </si>
   <si>
-    <t>fish_caijin_hongbao</t>
-  </si>
-  <si>
     <t>ad_114</t>
   </si>
   <si>
@@ -1328,6 +1325,10 @@
   </si>
   <si>
     <t>wxjl_dk_bg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_caijin_hongbao</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1866,10 +1867,10 @@
   <dimension ref="A1:X132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W132" sqref="W132"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2084,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -2110,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
@@ -2214,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>24</v>
@@ -2480,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>31</v>
@@ -2530,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>31</v>
@@ -4500,7 +4501,7 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X48" s="7" t="s">
         <v>32</v>
@@ -8180,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X112" s="7" t="s">
         <v>36</v>
@@ -8258,7 +8259,7 @@
         <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D114" s="2">
         <v>2</v>
@@ -8621,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="H120" s="12">
         <v>43942.3125</v>
@@ -8651,7 +8652,7 @@
         <v>24</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U120" s="3">
         <v>1</v>
@@ -8671,13 +8672,13 @@
         <v>131</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D121" s="16">
         <v>0</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F121" s="16">
         <v>0</v>
@@ -8712,13 +8713,13 @@
         <v>142</v>
       </c>
       <c r="Q121" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U121" s="16">
         <v>1</v>
       </c>
       <c r="W121" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X121" s="16" t="s">
         <v>29</v>
@@ -8732,13 +8733,13 @@
         <v>132</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D122" s="16">
         <v>5</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F122" s="16">
         <v>0</v>
@@ -8773,13 +8774,13 @@
         <v>142</v>
       </c>
       <c r="Q122" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="U122" s="16">
+        <v>1</v>
+      </c>
+      <c r="W122" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="U122" s="16">
-        <v>1</v>
-      </c>
-      <c r="W122" s="16" t="s">
-        <v>342</v>
       </c>
       <c r="X122" s="20" t="s">
         <v>36</v>
@@ -8793,19 +8794,19 @@
         <v>133</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D123" s="16">
         <v>3</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F123" s="16">
         <v>0</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H123" s="18">
         <v>43949.3125</v>
@@ -8834,16 +8835,16 @@
         <v>23</v>
       </c>
       <c r="P123" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q123" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="Q123" s="16" t="s">
+      <c r="U123" s="16">
+        <v>1</v>
+      </c>
+      <c r="W123" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="U123" s="16">
-        <v>1</v>
-      </c>
-      <c r="W123" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="X123" s="16" t="s">
         <v>29</v>
@@ -8857,7 +8858,7 @@
         <v>134</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D124" s="16">
         <v>6</v>
@@ -8895,7 +8896,7 @@
         <v>24</v>
       </c>
       <c r="Q124" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U124" s="16">
         <v>1</v>
@@ -8915,7 +8916,7 @@
         <v>135</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D125" s="16">
         <v>6</v>
@@ -8953,7 +8954,7 @@
         <v>24</v>
       </c>
       <c r="Q125" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U125" s="16">
         <v>1</v>
@@ -8973,7 +8974,7 @@
         <v>136</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D126" s="16">
         <v>6</v>
@@ -9011,7 +9012,7 @@
         <v>24</v>
       </c>
       <c r="Q126" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U126" s="16">
         <v>1</v>
@@ -9031,13 +9032,13 @@
         <v>137</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D127" s="16">
         <v>-1</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F127" s="16">
         <v>0</v>
@@ -9066,22 +9067,22 @@
         <v>1</v>
       </c>
       <c r="O127" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="P127" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q127" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="U127" s="16">
+        <v>1</v>
+      </c>
+      <c r="W127" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="X127" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="P127" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q127" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="U127" s="16">
-        <v>1</v>
-      </c>
-      <c r="W127" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="X127" s="16" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9092,7 +9093,7 @@
         <v>138</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D128" s="23">
         <v>8</v>
@@ -9102,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H128" s="24"/>
       <c r="I128" s="25"/>
@@ -9118,13 +9119,13 @@
         <v>1</v>
       </c>
       <c r="O128" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P128" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q128" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R128" s="23"/>
       <c r="S128" s="23"/>
@@ -9134,10 +9135,10 @@
       </c>
       <c r="V128" s="23"/>
       <c r="W128" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X128" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -9148,7 +9149,7 @@
         <v>139</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D129" s="23">
         <v>8</v>
@@ -9158,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H129" s="24"/>
       <c r="I129" s="25"/>
@@ -9174,13 +9175,13 @@
         <v>1</v>
       </c>
       <c r="O129" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P129" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q129" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R129" s="23"/>
       <c r="S129" s="23"/>
@@ -9190,10 +9191,10 @@
       </c>
       <c r="V129" s="23"/>
       <c r="W129" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="X129" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:24" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -9204,13 +9205,13 @@
         <v>140</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D130" s="23">
         <v>3</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F130" s="23">
         <v>0</v>
@@ -9237,22 +9238,22 @@
         <v>1</v>
       </c>
       <c r="O130" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="P130" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="P130" s="23" t="s">
+      <c r="Q130" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="Q130" s="35" t="s">
+      <c r="U130" s="23">
+        <v>1</v>
+      </c>
+      <c r="W130" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="U130" s="23">
-        <v>1</v>
-      </c>
-      <c r="W130" s="23" t="s">
+      <c r="X130" s="23" t="s">
         <v>375</v>
-      </c>
-      <c r="X130" s="23" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:24" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -9263,7 +9264,7 @@
         <v>141</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D131" s="16">
         <v>0</v>
@@ -9298,16 +9299,16 @@
         <v>23</v>
       </c>
       <c r="P131" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q131" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="U131" s="16">
+        <v>1</v>
+      </c>
+      <c r="W131" s="16" t="s">
         <v>381</v>
-      </c>
-      <c r="U131" s="16">
-        <v>1</v>
-      </c>
-      <c r="W131" s="16" t="s">
-        <v>382</v>
       </c>
       <c r="X131" s="16" t="s">
         <v>29</v>
@@ -9321,7 +9322,7 @@
         <v>142</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D132" s="16">
         <v>-1</v>
@@ -9356,10 +9357,10 @@
         <v>23</v>
       </c>
       <c r="P132" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q132" s="16" t="s">
         <v>384</v>
-      </c>
-      <c r="Q132" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="U132" s="16">
         <v>1</v>
@@ -9377,17 +9378,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9398,15 +9397,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9416,13 +9417,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -9434,13 +9435,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
